--- a/assn3_error_spreadsheet.xlsx
+++ b/assn3_error_spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adams\Documents\GitHub\Quinterac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CB9116-40E4-4847-97C5-B57D61BB6E01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2115380C-81E5-430C-8391-D01CD398FDF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{56D26355-57D5-4974-A94D-FE9FEE212E44}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t xml:space="preserve">Test Case </t>
   </si>
@@ -78,23 +78,41 @@
     <t>The space was removed from the string “EOS 0000000 000 0000000 ***”</t>
   </si>
   <si>
-    <t>It gave the output “Transfer (transfer)” instead</t>
-  </si>
-  <si>
-    <t>We put all the transaction onto the same line</t>
-  </si>
-  <si>
-    <t>ETTO: Transaction Complete! EOT: EOS 0000000 000 0000000 ***</t>
-  </si>
-  <si>
     <t>R2T2</t>
   </si>
   <si>
-    <t>ETTO: ** Error ** Not a valid transaction, please try again!
-EOT: N/A</t>
-  </si>
-  <si>
-    <t>We grouped each of the transaction into a newline which meant looking at the second last tail string would not work</t>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>ETTO =expected_tail_of_terminal_output                            EOT = expected_output_transactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETTO: ** Error ** Not a valid transaction, please try again!, "What would you like to do?: - Deposit (deposit) | Withdraw (withdraw) | Transfer (transfer) | Logout (logout)"
+</t>
+  </si>
+  <si>
+    <t>EOT: N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EOT: EOS 0000000 000 0000000 ***</t>
+  </si>
+  <si>
+    <t>ETTO: Transaction Complete!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETTO: Transaction Complete! </t>
+  </si>
+  <si>
+    <t>EOT: EOS 0000000 000 0000000 ***</t>
+  </si>
+  <si>
+    <t>We grouped each of the transaction into a newline which meant looking at the last tail string would not work</t>
+  </si>
+  <si>
+    <t>It gave the output “Logout (logout)” instead</t>
+  </si>
+  <si>
+    <t>We put all the transaction onto the same line using the parameter 'end=""'</t>
   </si>
 </sst>
 </file>
@@ -124,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -147,11 +165,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -160,6 +204,30 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -476,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4470759-88DD-4FD5-BCEF-A6FE95261112}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J4:J5"/>
+      <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,9 +557,11 @@
     <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -507,72 +577,145 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/assn3_error_spreadsheet.xlsx
+++ b/assn3_error_spreadsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adams\Documents\GitHub\Quinterac\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian_c\OneDrive\Documents\CISC 327\git\327_proj\Quinterac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2115380C-81E5-430C-8391-D01CD398FDF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="13_ncr:1_{2115380C-81E5-430C-8391-D01CD398FDF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F9E9B495-EDCD-467B-8D20-88261164224E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{56D26355-57D5-4974-A94D-FE9FEE212E44}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{56D26355-57D5-4974-A94D-FE9FEE212E44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
   <si>
     <t xml:space="preserve">Test Case </t>
   </si>
@@ -87,42 +87,163 @@
     <t>ETTO =expected_tail_of_terminal_output                            EOT = expected_output_transactions</t>
   </si>
   <si>
-    <t xml:space="preserve">ETTO: ** Error ** Not a valid transaction, please try again!, "What would you like to do?: - Deposit (deposit) | Withdraw (withdraw) | Transfer (transfer) | Logout (logout)"
+    <t>EOT: N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EOT: EOS 0000000 000 0000000 ***</t>
+  </si>
+  <si>
+    <t>EOT: EOS 0000000 000 0000000 ***</t>
+  </si>
+  <si>
+    <t>We grouped each of the transaction into a newline which meant looking at the last tail string would not work</t>
+  </si>
+  <si>
+    <t>It gave the output “Logout (logout)” instead</t>
+  </si>
+  <si>
+    <t>We put all the transaction onto the same line using the parameter 'end=""'</t>
+  </si>
+  <si>
+    <t>R7T2</t>
+  </si>
+  <si>
+    <t>Did not include an if statement to catch the error</t>
+  </si>
+  <si>
+    <t>Added a new if, else statement to catch account numbers that start with 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETTO: "** Error ** Not a valid transaction, please try again!, "What would you like to do?: - Deposit (deposit) | Withdraw (withdraw) | Transfer (transfer) | Logout (logout)"
 </t>
   </si>
   <si>
-    <t>EOT: N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EOT: EOS 0000000 000 0000000 ***</t>
-  </si>
-  <si>
-    <t>ETTO: Transaction Complete!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETTO: Transaction Complete! </t>
-  </si>
-  <si>
-    <t>EOT: EOS 0000000 000 0000000 ***</t>
-  </si>
-  <si>
-    <t>We grouped each of the transaction into a newline which meant looking at the last tail string would not work</t>
-  </si>
-  <si>
-    <t>It gave the output “Logout (logout)” instead</t>
-  </si>
-  <si>
-    <t>We put all the transaction onto the same line using the parameter 'end=""'</t>
+    <t>ETTO: "Transaction Complete!"</t>
+  </si>
+  <si>
+    <t>There was no error message for account number starting with 0</t>
+  </si>
+  <si>
+    <t>R8T2</t>
+  </si>
+  <si>
+    <t>R8T3</t>
+  </si>
+  <si>
+    <t>Added a new if, else statement to catch monetary amounts less than 3 digits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETTO: "** ERROR ** Your account number can not start with 0"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETTO: "** ERROR ** Please enter an amount below 9 digits"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETTO: "** ERROR ** Please enter an amount greater than 2 digits"
+</t>
+  </si>
+  <si>
+    <t>R11T2</t>
+  </si>
+  <si>
+    <t>R11T3</t>
+  </si>
+  <si>
+    <t>Added a new if, else statement to catch monetary amounts greater than 8 digits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETTO: "** ERROR  ** Your account number must be numerical"
+</t>
+  </si>
+  <si>
+    <t>Added a new if, else statement to catch if account number is non-numerical</t>
+  </si>
+  <si>
+    <t>ETTO: "** ERROR ** Your account number can not start with 0"</t>
+  </si>
+  <si>
+    <t>ETTO: "** ERROR ** Your account number was not 7-digits"</t>
+  </si>
+  <si>
+    <t>Added a new if, else statement to catch account numbers that are not seven digits</t>
+  </si>
+  <si>
+    <t>ETTO: "** ERROR  ** You did not enter a valid account number"</t>
+  </si>
+  <si>
+    <t>There was no error message for monetary amounts less than 3 digits</t>
+  </si>
+  <si>
+    <t>There was no error message for monetary amounts greater than 8 digits</t>
+  </si>
+  <si>
+    <t>There was no error message for non numerical account numbers for account number 1 in transfer</t>
+  </si>
+  <si>
+    <t>There was no error message for account number that start with 0 for the first account number in transfer</t>
+  </si>
+  <si>
+    <t>There was no error message for account number that is not 7 digits for account number 1 in transfer</t>
+  </si>
+  <si>
+    <t>There was no error message for account number that is not found on valid account list file for account number 1 in transfer</t>
+  </si>
+  <si>
+    <t>Added a new if, else statement to catch account numbers that are not found in the valid account list file</t>
+  </si>
+  <si>
+    <t>R13T1</t>
+  </si>
+  <si>
+    <t>R13T2</t>
+  </si>
+  <si>
+    <t>R13T3</t>
+  </si>
+  <si>
+    <t>R13T4</t>
+  </si>
+  <si>
+    <t>There was no error message for non numerical account numbers for account number 2 in transfer</t>
+  </si>
+  <si>
+    <t>There was no error message for account number that start with 0 for account number 2 in transfer</t>
+  </si>
+  <si>
+    <t>There was no error message for account number that is not 7 digits for account number 2 in transfer</t>
+  </si>
+  <si>
+    <t>There was no error message for account number that is not found on valid account list file for account number 2 in transfer</t>
+  </si>
+  <si>
+    <t>R14T1</t>
+  </si>
+  <si>
+    <t>R14T2</t>
+  </si>
+  <si>
+    <t>R14T3</t>
+  </si>
+  <si>
+    <t>R14T4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,18 +327,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -229,6 +338,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,24 +665,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4470759-88DD-4FD5-BCEF-A6FE95261112}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="25.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" style="1"/>
+    <col min="2" max="2" width="27.6328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.76953125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -577,136 +698,526 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="9"/>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="G3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="9"/>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="51.65" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A7" s="9"/>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="115.2" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3" t="s">
+      <c r="E8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="A9" s="9"/>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="59" x14ac:dyDescent="0.75">
+      <c r="A10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="E10" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+    <row r="11" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A11" s="9"/>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="59" x14ac:dyDescent="0.75">
+      <c r="A12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A13" s="9"/>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="31.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A15" s="9"/>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" ht="59" x14ac:dyDescent="0.75">
+      <c r="A16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="32.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A17" s="9"/>
+      <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A19" s="9"/>
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" ht="59" x14ac:dyDescent="0.75">
+      <c r="A20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A21" s="9"/>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A23" s="9"/>
+      <c r="B23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="45.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A25" s="9"/>
+      <c r="B25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A27" s="9"/>
+      <c r="B27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" ht="59" x14ac:dyDescent="0.75">
+      <c r="A28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A29" s="9"/>
+      <c r="B29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="37.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A31" s="9"/>
+      <c r="B31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A32" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A33" s="9"/>
+      <c r="B33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A34" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A35" s="9"/>
+      <c r="B35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
+  <mergeCells count="71">
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A6:A7"/>
@@ -715,7 +1226,12 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/assn3_error_spreadsheet.xlsx
+++ b/assn3_error_spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian_c\OneDrive\Documents\CISC 327\git\327_proj\Quinterac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="13_ncr:1_{2115380C-81E5-430C-8391-D01CD398FDF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F9E9B495-EDCD-467B-8D20-88261164224E}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="13_ncr:1_{2115380C-81E5-430C-8391-D01CD398FDF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8A869F9A-4CD9-4CC4-BA80-AA9B1C8E1808}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{56D26355-57D5-4974-A94D-FE9FEE212E44}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
   <si>
     <t xml:space="preserve">Test Case </t>
   </si>
@@ -228,6 +228,42 @@
   </si>
   <si>
     <t>R14T4</t>
+  </si>
+  <si>
+    <t>R17T2</t>
+  </si>
+  <si>
+    <t>ETTO: **ERROR** Your account number can not start with 0</t>
+  </si>
+  <si>
+    <t>Account number was accepted (should have been rejected)</t>
+  </si>
+  <si>
+    <t>Did not add condition to check if account number starts with 0</t>
+  </si>
+  <si>
+    <t>Added an if statement with condition to check if account number starts with 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EOT: N/A</t>
+  </si>
+  <si>
+    <t>R20T2</t>
+  </si>
+  <si>
+    <t>R20T3</t>
+  </si>
+  <si>
+    <t>ETTO: **ERROR** Your account number must only have 7 digits</t>
+  </si>
+  <si>
+    <t>Error for invalid account was given: **ERROR** Please enter valid account number</t>
+  </si>
+  <si>
+    <t>Did not add condition to check 7 digits</t>
+  </si>
+  <si>
+    <t>Added an if statement with condition of checking 7 digits</t>
   </si>
 </sst>
 </file>
@@ -316,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -345,11 +381,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4470759-88DD-4FD5-BCEF-A6FE95261112}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -698,12 +740,12 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -730,10 +772,10 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A4" s="8" t="s">
@@ -762,8 +804,8 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" ht="51.65" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A6" s="8" t="s">
@@ -1157,8 +1199,157 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
     </row>
+    <row r="36" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A36" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="49.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A37" s="9"/>
+      <c r="B37" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A38" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A39" s="9"/>
+      <c r="B39" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A40" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="51.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A41" s="9"/>
+      <c r="B41" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="83">
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="D34:D35"/>
@@ -1171,65 +1362,6 @@
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
